--- a/eval/results/100ms_results/results.xlsx
+++ b/eval/results/100ms_results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilja\Real-Time-Offloading-Simulator\eval\results\100ms_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Real-Time-Offloading-Simulator/eval/results/100ms_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F867E0C0-1E1E-4B7E-915B-98052BB92276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88377FEE-9099-E44B-8D96-BC2C1BF34E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35535" yWindow="-2070" windowWidth="28800" windowHeight="15435" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="196">
   <si>
     <t>client_test_10_1</t>
   </si>
@@ -366,12 +366,258 @@
   </si>
   <si>
     <t>Total Tasks</t>
+  </si>
+  <si>
+    <t>0.6621880998080614</t>
+  </si>
+  <si>
+    <t>0.9942028985507246</t>
+  </si>
+  <si>
+    <t>0.2823081817682326</t>
+  </si>
+  <si>
+    <t>0.09902406238931298</t>
+  </si>
+  <si>
+    <t>0.05247218319533528</t>
+  </si>
+  <si>
+    <t>0.07279693486590039</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.031235640022371634</t>
+  </si>
+  <si>
+    <t>0.09887070634482759</t>
+  </si>
+  <si>
+    <t>0.08774044418421054</t>
+  </si>
+  <si>
+    <t>0.0020242914979757085</t>
+  </si>
+  <si>
+    <t>0.0008305962135514274</t>
+  </si>
+  <si>
+    <t>0.10157035659109312</t>
+  </si>
+  <si>
+    <t>0.110825212</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1011047810433145</t>
+  </si>
+  <si>
+    <t>0.8681102362204725</t>
+  </si>
+  <si>
+    <t>0.41672757261316384</t>
+  </si>
+  <si>
+    <t>0.1014681961330724</t>
+  </si>
+  <si>
+    <t>0.04485569518367347</t>
+  </si>
+  <si>
+    <t>0.6586715867158671</t>
+  </si>
+  <si>
+    <t>0.9971988795518207</t>
+  </si>
+  <si>
+    <t>0.2927994778966557</t>
+  </si>
+  <si>
+    <t>0.09852864984403668</t>
+  </si>
+  <si>
+    <t>0.05152399449438202</t>
+  </si>
+  <si>
+    <t>0.07824427480916031</t>
+  </si>
+  <si>
+    <t>0.0337850575541801</t>
+  </si>
+  <si>
+    <t>0.10064989088380952</t>
+  </si>
+  <si>
+    <t>0.09176608212195123</t>
+  </si>
+  <si>
+    <t>0.09906880074849095</t>
+  </si>
+  <si>
+    <t>0.09789893444444445</t>
+  </si>
+  <si>
+    <t>0.832046332046332</t>
+  </si>
+  <si>
+    <t>0.42524230000346314</t>
+  </si>
+  <si>
+    <t>0.09932854239005735</t>
+  </si>
+  <si>
+    <t>0.04381946875870069</t>
+  </si>
+  <si>
+    <t>0.6427221172022685</t>
+  </si>
+  <si>
+    <t>0.9941176470588236</t>
+  </si>
+  <si>
+    <t>0.2781391048857909</t>
+  </si>
+  <si>
+    <t>0.09865636424105462</t>
+  </si>
+  <si>
+    <t>0.05204195703254437</t>
+  </si>
+  <si>
+    <t>0.07509881422924901</t>
+  </si>
+  <si>
+    <t>0.031288546620804984</t>
+  </si>
+  <si>
+    <t>0.09897624378895463</t>
+  </si>
+  <si>
+    <t>0.09159809939473684</t>
+  </si>
+  <si>
+    <t>0.001937984496124031</t>
+  </si>
+  <si>
+    <t>0.0008310445616912888</t>
+  </si>
+  <si>
+    <t>0.09916363544487426</t>
+  </si>
+  <si>
+    <t>0.113775198</t>
+  </si>
+  <si>
+    <t>0.10199199458349704</t>
+  </si>
+  <si>
+    <t>0.8128440366972477</t>
+  </si>
+  <si>
+    <t>0.4455926370222093</t>
+  </si>
+  <si>
+    <t>0.10067083811700182</t>
+  </si>
+  <si>
+    <t>0.045975832203160275</t>
+  </si>
+  <si>
+    <t>0.6742424242424242</t>
+  </si>
+  <si>
+    <t>0.29112100993423684</t>
+  </si>
+  <si>
+    <t>0.10134092160075331</t>
+  </si>
+  <si>
+    <t>0.0543017544241573</t>
+  </si>
+  <si>
+    <t>0.073558648111332</t>
+  </si>
+  <si>
+    <t>0.030419232341949706</t>
+  </si>
+  <si>
+    <t>0.10210344999999998</t>
+  </si>
+  <si>
+    <t>0.09016179383783784</t>
+  </si>
+  <si>
+    <t>0.10178629575296443</t>
+  </si>
+  <si>
+    <t>0.09797360214867618</t>
+  </si>
+  <si>
+    <t>0.8502024291497976</t>
+  </si>
+  <si>
+    <t>0.40497021015328166</t>
+  </si>
+  <si>
+    <t>0.10150897982258064</t>
+  </si>
+  <si>
+    <t>0.045361774726190476</t>
+  </si>
+  <si>
+    <t>0.6822429906542056</t>
+  </si>
+  <si>
+    <t>0.9945205479452055</t>
+  </si>
+  <si>
+    <t>0.2993020056403472</t>
+  </si>
+  <si>
+    <t>0.10116277243470148</t>
+  </si>
+  <si>
+    <t>0.05170229027272728</t>
+  </si>
+  <si>
+    <t>0.07459677419354839</t>
+  </si>
+  <si>
+    <t>0.03047140123770763</t>
+  </si>
+  <si>
+    <t>0.09872654574549099</t>
+  </si>
+  <si>
+    <t>0.08974884697297297</t>
+  </si>
+  <si>
+    <t>0.10100066796787148</t>
+  </si>
+  <si>
+    <t>0.09860298094999999</t>
+  </si>
+  <si>
+    <t>0.8065693430656934</t>
+  </si>
+  <si>
+    <t>0.4500761902829683</t>
+  </si>
+  <si>
+    <t>0.09919347464727271</t>
+  </si>
+  <si>
+    <t>0.04256668745701357</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,48 +1099,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,7 +1156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1205,16 +1451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10</v>
       </c>
@@ -1243,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1272,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1301,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1330,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1359,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1388,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1417,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1446,7 +1692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1475,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1504,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1533,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1562,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1591,7 +1837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1620,7 +1866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
@@ -1649,7 +1895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -1678,7 +1924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40</v>
       </c>
@@ -1707,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1736,7 +1982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
@@ -1765,7 +2011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
@@ -1794,7 +2040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1823,7 +2069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1852,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50</v>
       </c>
@@ -1881,7 +2127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50</v>
       </c>
@@ -1910,7 +2156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1939,7 +2185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>120</v>
       </c>
@@ -1968,7 +2214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>120</v>
       </c>
@@ -1997,7 +2243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>120</v>
       </c>
@@ -2026,7 +2272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>120</v>
       </c>
@@ -2055,7 +2301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>120</v>
       </c>
@@ -2084,7 +2330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>150</v>
       </c>
@@ -2113,7 +2359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>150</v>
       </c>
@@ -2142,7 +2388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>150</v>
       </c>
@@ -2171,7 +2417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>150</v>
       </c>
@@ -2200,7 +2446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>150</v>
       </c>
@@ -2229,7 +2475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>180</v>
       </c>
@@ -2258,7 +2504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>180</v>
       </c>
@@ -2287,7 +2533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>180</v>
       </c>
@@ -2316,7 +2562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>180</v>
       </c>
@@ -2345,7 +2591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>180</v>
       </c>
@@ -2374,7 +2620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>60</v>
       </c>
@@ -2403,7 +2649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>60</v>
       </c>
@@ -2432,7 +2678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>60</v>
       </c>
@@ -2461,7 +2707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>60</v>
       </c>
@@ -2490,7 +2736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>60</v>
       </c>
@@ -2519,7 +2765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>90</v>
       </c>
@@ -2548,7 +2794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>90</v>
       </c>
@@ -2577,7 +2823,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>90</v>
       </c>
@@ -2606,7 +2852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>90</v>
       </c>
@@ -2635,7 +2881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>90</v>
       </c>
@@ -2664,7 +2910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2693,7 +2939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10</v>
       </c>
@@ -2722,7 +2968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -2751,7 +2997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10</v>
       </c>
@@ -2780,7 +3026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10</v>
       </c>
@@ -2809,7 +3055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20</v>
       </c>
@@ -2838,7 +3084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20</v>
       </c>
@@ -2867,7 +3113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20</v>
       </c>
@@ -2896,7 +3142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>20</v>
       </c>
@@ -2925,7 +3171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20</v>
       </c>
@@ -2954,7 +3200,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>30</v>
       </c>
@@ -2983,7 +3229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>30</v>
       </c>
@@ -3012,7 +3258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>30</v>
       </c>
@@ -3041,7 +3287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>30</v>
       </c>
@@ -3070,7 +3316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>30</v>
       </c>
@@ -3099,7 +3345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40</v>
       </c>
@@ -3128,7 +3374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>40</v>
       </c>
@@ -3157,7 +3403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40</v>
       </c>
@@ -3186,7 +3432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>40</v>
       </c>
@@ -3215,7 +3461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>40</v>
       </c>
@@ -3244,7 +3490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>50</v>
       </c>
@@ -3273,7 +3519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>50</v>
       </c>
@@ -3302,7 +3548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>50</v>
       </c>
@@ -3331,7 +3577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>50</v>
       </c>
@@ -3360,7 +3606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>50</v>
       </c>
@@ -3389,7 +3635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>100</v>
       </c>
@@ -3418,7 +3664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>100</v>
       </c>
@@ -3447,7 +3693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>100</v>
       </c>
@@ -3476,7 +3722,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>100</v>
       </c>
@@ -3505,7 +3751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>100</v>
       </c>
@@ -3534,7 +3780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20</v>
       </c>
@@ -3563,7 +3809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>20</v>
       </c>
@@ -3592,7 +3838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20</v>
       </c>
@@ -3621,7 +3867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>20</v>
       </c>
@@ -3650,7 +3896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>20</v>
       </c>
@@ -3679,7 +3925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>40</v>
       </c>
@@ -3708,7 +3954,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>40</v>
       </c>
@@ -3737,7 +3983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>40</v>
       </c>
@@ -3766,7 +4012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>40</v>
       </c>
@@ -3795,7 +4041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>40</v>
       </c>
@@ -3824,7 +4070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>60</v>
       </c>
@@ -3853,7 +4099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>60</v>
       </c>
@@ -3882,7 +4128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>60</v>
       </c>
@@ -3911,7 +4157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>60</v>
       </c>
@@ -3940,7 +4186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>60</v>
       </c>
@@ -3969,7 +4215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>80</v>
       </c>
@@ -3998,7 +4244,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>80</v>
       </c>
@@ -4027,7 +4273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>80</v>
       </c>
@@ -4056,7 +4302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>80</v>
       </c>
@@ -4085,7 +4331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>80</v>
       </c>
@@ -4120,16 +4366,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -4155,654 +4404,654 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>660</v>
+        <v>521</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.10149681156927701</v>
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>658</v>
+        <v>522</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>9.8179289215805404E-2</v>
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>701</v>
+        <v>494</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>9.9244661305949E-2</v>
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>634</v>
+        <v>530</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>128</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.10089654483805</v>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>626</v>
+        <v>508</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.30990415335463201</v>
-      </c>
-      <c r="F6">
-        <v>0.51230125607281995</v>
-      </c>
-      <c r="G6">
-        <v>0.100173188453968</v>
-      </c>
-      <c r="H6">
-        <v>2.33892450618556E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>674</v>
+        <v>542</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>9.94117020905044E-2</v>
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>676</v>
+        <v>524</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.100615577723122</v>
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>679</v>
+        <v>497</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>9.9859972986822795E-2</v>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>685</v>
+        <v>504</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.10185868297525399</v>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>644</v>
+        <v>518</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0.32919254658385</v>
-      </c>
-      <c r="F11">
-        <v>0.52813388838487896</v>
-      </c>
-      <c r="G11">
-        <v>9.7548789675384606E-2</v>
-      </c>
-      <c r="H11">
-        <v>2.21123419528301E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>666</v>
+        <v>529</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.100149929050822</v>
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>655</v>
+        <v>506</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>9.7579100468797503E-2</v>
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>654</v>
+        <v>516</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>9.8871449567073097E-2</v>
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" t="s">
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>657</v>
+        <v>508</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.10413952737234</v>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>639</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.34272300469483502</v>
-      </c>
-      <c r="F16">
-        <v>0.52377143319972097</v>
-      </c>
-      <c r="G16">
-        <v>9.8109288842923706E-2</v>
-      </c>
-      <c r="H16">
-        <v>2.3759181680365199E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>665</v>
+        <v>528</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0.10028630653153101</v>
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>169</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>637</v>
+        <v>503</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.10151934056651001</v>
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>173</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B19">
-        <v>699</v>
+        <v>506</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>128</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.100095102701428</v>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>175</v>
       </c>
       <c r="H19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B20">
-        <v>661</v>
+        <v>490</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>128</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>9.7220314751131201E-2</v>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>176</v>
       </c>
       <c r="H20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>659</v>
+        <v>494</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.29742033383915001</v>
-      </c>
-      <c r="F21">
-        <v>0.53985741098389906</v>
-      </c>
-      <c r="G21">
-        <v>9.9188970767722401E-2</v>
-      </c>
-      <c r="H21">
-        <v>2.4227512790816301E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>640</v>
+        <v>535</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0.10158857972897101</v>
+        <v>182</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>184</v>
       </c>
       <c r="H22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B23">
-        <v>672</v>
+        <v>496</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="D23" t="s">
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0.10222176945170799</v>
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>695</v>
+        <v>497</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>0</v>
+      <c r="D24" t="s">
+        <v>128</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0.100518011932761</v>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
       </c>
       <c r="H24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>667</v>
+        <v>498</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" t="s">
+        <v>128</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0.100997419414306</v>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
       </c>
       <c r="H25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B26">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0.24382207578253701</v>
-      </c>
-      <c r="F26">
-        <v>0.49662609270299601</v>
-      </c>
-      <c r="G26">
-        <v>9.8741838909983601E-2</v>
-      </c>
-      <c r="H26">
-        <v>2.21242575067567E-2</v>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4811,16 +5060,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -4846,7 +5095,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4872,7 +5121,7 @@
         <v>5.3454431954773798E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4898,7 +5147,7 @@
         <v>7.6772648499999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -4924,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -4950,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -4976,7 +5225,7 @@
         <v>4.1514522431535202E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -5002,7 +5251,7 @@
         <v>5.5624055779005498E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -5028,7 +5277,7 @@
         <v>8.4897546529411699E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -5054,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -5080,7 +5329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -5106,7 +5355,7 @@
         <v>4.2254844710659899E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -5132,7 +5381,7 @@
         <v>5.5861443811203303E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30</v>
       </c>
@@ -5158,7 +5407,7 @@
         <v>8.9561662258064501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
@@ -5184,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
@@ -5210,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>30</v>
       </c>
@@ -5236,7 +5485,7 @@
         <v>3.72664187107438E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40</v>
       </c>
@@ -5262,7 +5511,7 @@
         <v>5.4226535323580002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40</v>
       </c>
@@ -5288,7 +5537,7 @@
         <v>8.9503700085365803E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
@@ -5314,7 +5563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
@@ -5340,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40</v>
       </c>
@@ -5366,7 +5615,7 @@
         <v>3.7863600859649099E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50</v>
       </c>
@@ -5392,7 +5641,7 @@
         <v>5.3313234756834499E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50</v>
       </c>
@@ -5418,7 +5667,7 @@
         <v>9.0546043287878797E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50</v>
       </c>
@@ -5444,7 +5693,7 @@
         <v>0.114976783</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50</v>
       </c>
@@ -5470,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50</v>
       </c>
@@ -5502,20 +5751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -5541,7 +5790,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>120</v>
       </c>
@@ -5567,7 +5816,7 @@
         <v>6.7192155084459401E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>120</v>
       </c>
@@ -5593,7 +5842,7 @@
         <v>9.5940830732142796E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>120</v>
       </c>
@@ -5619,7 +5868,7 @@
         <v>0.10663840902777701</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120</v>
       </c>
@@ -5645,7 +5894,7 @@
         <v>0.1186932798125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120</v>
       </c>
@@ -5671,7 +5920,7 @@
         <v>4.7460517422121901E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>150</v>
       </c>
@@ -5697,7 +5946,7 @@
         <v>9.4745911634304195E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>150</v>
       </c>
@@ -5723,7 +5972,7 @@
         <v>0.115885011571428</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>150</v>
       </c>
@@ -5749,7 +5998,7 @@
         <v>0.13344005501923001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>150</v>
       </c>
@@ -5775,7 +6024,7 @@
         <v>0.15727358012499901</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>150</v>
       </c>
@@ -5801,7 +6050,7 @@
         <v>8.2472841082191703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>180</v>
       </c>
@@ -5827,7 +6076,7 @@
         <v>0.1173843044009</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>180</v>
       </c>
@@ -5853,7 +6102,7 @@
         <v>0.14290281706794</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>180</v>
       </c>
@@ -5879,7 +6128,7 @@
         <v>0.16968063013736201</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>180</v>
       </c>
@@ -5905,7 +6154,7 @@
         <v>0.16956124622222199</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>180</v>
       </c>
@@ -5931,7 +6180,7 @@
         <v>9.2829002143750006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>60</v>
       </c>
@@ -5957,7 +6206,7 @@
         <v>2.1980603588235201E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -5983,7 +6232,7 @@
         <v>3.62149924E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>60</v>
       </c>
@@ -6009,7 +6258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>60</v>
       </c>
@@ -6035,7 +6284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>60</v>
       </c>
@@ -6061,7 +6310,7 @@
         <v>1.3267227649999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>90</v>
       </c>
@@ -6087,7 +6336,7 @@
         <v>4.92132457742782E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>90</v>
       </c>
@@ -6113,7 +6362,7 @@
         <v>6.6859150377049106E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>90</v>
       </c>
@@ -6139,7 +6388,7 @@
         <v>8.2416933375000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>90</v>
       </c>
@@ -6165,7 +6414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>90</v>
       </c>
@@ -6197,22 +6446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -6238,7 +6487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6264,7 +6513,7 @@
         <v>5.3474230869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -6290,7 +6539,7 @@
         <v>8.2439300666666604E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -6316,7 +6565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -6342,7 +6591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -6368,7 +6617,7 @@
         <v>4.2008497092592502E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -6394,7 +6643,7 @@
         <v>5.0666469828715303E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -6420,7 +6669,7 @@
         <v>8.0597526107142797E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -6446,7 +6695,7 @@
         <v>0.10420987399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -6472,7 +6721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -6498,7 +6747,7 @@
         <v>4.3132122662280697E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -6524,7 +6773,7 @@
         <v>5.1250953008590998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30</v>
       </c>
@@ -6550,7 +6799,7 @@
         <v>8.0871005388888806E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
@@ -6576,7 +6825,7 @@
         <v>0.12002144200000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
@@ -6602,7 +6851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>30</v>
       </c>
@@ -6628,7 +6877,7 @@
         <v>3.4365185409207098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40</v>
       </c>
@@ -6654,7 +6903,7 @@
         <v>5.1401913727793597E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40</v>
       </c>
@@ -6680,7 +6929,7 @@
         <v>7.8710458406014996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
@@ -6706,7 +6955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
@@ -6732,7 +6981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40</v>
       </c>
@@ -6758,7 +7007,7 @@
         <v>3.3010532216535403E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50</v>
       </c>
@@ -6784,7 +7033,7 @@
         <v>4.8722617259627302E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50</v>
       </c>
@@ -6810,7 +7059,7 @@
         <v>8.0342337420634902E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50</v>
       </c>
@@ -6836,7 +7085,7 @@
         <v>0.1238634062</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50</v>
       </c>
@@ -6862,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50</v>
       </c>

--- a/eval/results/100ms_results/results.xlsx
+++ b/eval/results/100ms_results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Real-Time-Offloading-Simulator/eval/results/100ms_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88377FEE-9099-E44B-8D96-BC2C1BF34E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D0C31-C786-CF4F-AE41-28AB026A3F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="518">
   <si>
     <t>client_test_10_1</t>
   </si>
@@ -612,6 +612,972 @@
   </si>
   <si>
     <t>0.04256668745701357</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.8758389261744967</t>
+  </si>
+  <si>
+    <t>0.9425287356321839</t>
+  </si>
+  <si>
+    <t>0.213684678685226</t>
+  </si>
+  <si>
+    <t>0.10081743281270902</t>
+  </si>
+  <si>
+    <t>0.04564293963414634</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.34831460674157305</t>
+  </si>
+  <si>
+    <t>0.07643618875856899</t>
+  </si>
+  <si>
+    <t>0.10244294569144981</t>
+  </si>
+  <si>
+    <t>0.06736082593548387</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.010416666666666666</t>
+  </si>
+  <si>
+    <t>0.0024814663787410627</t>
+  </si>
+  <si>
+    <t>0.1015042823702422</t>
+  </si>
+  <si>
+    <t>0.08851796299999999</t>
+  </si>
+  <si>
+    <t>0.8662207357859532</t>
+  </si>
+  <si>
+    <t>0.9362934362934363</t>
+  </si>
+  <si>
+    <t>0.4164244706348492</t>
+  </si>
+  <si>
+    <t>0.09920268201164725</t>
+  </si>
+  <si>
+    <t>0.04410618064948453</t>
+  </si>
+  <si>
+    <t>0.37037037037037035</t>
+  </si>
+  <si>
+    <t>0.16920727387881945</t>
+  </si>
+  <si>
+    <t>0.10247827764788732</t>
+  </si>
+  <si>
+    <t>0.06632229348571428</t>
+  </si>
+  <si>
+    <t>0.010273972602739725</t>
+  </si>
+  <si>
+    <t>0.004866525274863388</t>
+  </si>
+  <si>
+    <t>0.10130484833105802</t>
+  </si>
+  <si>
+    <t>0.09525899333333333</t>
+  </si>
+  <si>
+    <t>0.8523111612175873</t>
+  </si>
+  <si>
+    <t>0.8915343915343915</t>
+  </si>
+  <si>
+    <t>0.5975956674683794</t>
+  </si>
+  <si>
+    <t>0.10029206437261502</t>
+  </si>
+  <si>
+    <t>0.04140311048367953</t>
+  </si>
+  <si>
+    <t>0.3312807881773399</t>
+  </si>
+  <si>
+    <t>0.21300555455010706</t>
+  </si>
+  <si>
+    <t>0.10031277561104295</t>
+  </si>
+  <si>
+    <t>0.06545013564312269</t>
+  </si>
+  <si>
+    <t>0.021739130434782608</t>
+  </si>
+  <si>
+    <t>0.01512647769258731</t>
+  </si>
+  <si>
+    <t>0.10096441809703195</t>
+  </si>
+  <si>
+    <t>0.09669847268421053</t>
+  </si>
+  <si>
+    <t>0.7839662447257384</t>
+  </si>
+  <si>
+    <t>0.8751345532831001</t>
+  </si>
+  <si>
+    <t>0.722991682450033</t>
+  </si>
+  <si>
+    <t>0.09908815945248108</t>
+  </si>
+  <si>
+    <t>0.03791235834440344</t>
+  </si>
+  <si>
+    <t>0.34562607204116635</t>
+  </si>
+  <si>
+    <t>0.3152301029983682</t>
+  </si>
+  <si>
+    <t>0.10005381069931857</t>
+  </si>
+  <si>
+    <t>0.06380873615384615</t>
+  </si>
+  <si>
+    <t>0.021834061135371178</t>
+  </si>
+  <si>
+    <t>0.019588784882792674</t>
+  </si>
+  <si>
+    <t>0.099781352396687</t>
+  </si>
+  <si>
+    <t>0.10408206436</t>
+  </si>
+  <si>
+    <t>0.7196132596685083</t>
+  </si>
+  <si>
+    <t>0.8330134357005758</t>
+  </si>
+  <si>
+    <t>0.7970762812650035</t>
+  </si>
+  <si>
+    <t>0.1004020364385724</t>
+  </si>
+  <si>
+    <t>0.038956247873271885</t>
+  </si>
+  <si>
+    <t>0.3443092340730136</t>
+  </si>
+  <si>
+    <t>0.3699978004401304</t>
+  </si>
+  <si>
+    <t>0.09938591661285714</t>
+  </si>
+  <si>
+    <t>0.06228807425571725</t>
+  </si>
+  <si>
+    <t>0.021247429746401644</t>
+  </si>
+  <si>
+    <t>0.023885608853313818</t>
+  </si>
+  <si>
+    <t>0.09863412964569084</t>
+  </si>
+  <si>
+    <t>0.09879419622580646</t>
+  </si>
+  <si>
+    <t>0.975254730713246</t>
+  </si>
+  <si>
+    <t>0.9955223880597015</t>
+  </si>
+  <si>
+    <t>0.5480413494656617</t>
+  </si>
+  <si>
+    <t>0.18345214897250361</t>
+  </si>
+  <si>
+    <t>0.11826785848425787</t>
+  </si>
+  <si>
+    <t>0.8150782361308677</t>
+  </si>
+  <si>
+    <t>0.46893015428457197</t>
+  </si>
+  <si>
+    <t>0.17808967497598868</t>
+  </si>
+  <si>
+    <t>0.13110004737870856</t>
+  </si>
+  <si>
+    <t>0.5880640465793304</t>
+  </si>
+  <si>
+    <t>0.33128978614216276</t>
+  </si>
+  <si>
+    <t>0.18109579012753624</t>
+  </si>
+  <si>
+    <t>0.1516753334628713</t>
+  </si>
+  <si>
+    <t>0.4287581699346405</t>
+  </si>
+  <si>
+    <t>0.8140243902439024</t>
+  </si>
+  <si>
+    <t>0.26839972781477955</t>
+  </si>
+  <si>
+    <t>0.059385758183833105</t>
+  </si>
+  <si>
+    <t>0.017059571554307117</t>
+  </si>
+  <si>
+    <t>0.031988873435326845</t>
+  </si>
+  <si>
+    <t>0.9130434782608695</t>
+  </si>
+  <si>
+    <t>0.018942792352835993</t>
+  </si>
+  <si>
+    <t>0.06108128471230981</t>
+  </si>
+  <si>
+    <t>0.030540052095238097</t>
+  </si>
+  <si>
+    <t>0.06060252808513513</t>
+  </si>
+  <si>
+    <t>0.7989203778677463</t>
+  </si>
+  <si>
+    <t>0.9425675675675675</t>
+  </si>
+  <si>
+    <t>0.48451366118635925</t>
+  </si>
+  <si>
+    <t>0.09016086000268816</t>
+  </si>
+  <si>
+    <t>0.03773086803046594</t>
+  </si>
+  <si>
+    <t>0.20029239766081872</t>
+  </si>
+  <si>
+    <t>0.11316066109124831</t>
+  </si>
+  <si>
+    <t>0.09037638308163265</t>
+  </si>
+  <si>
+    <t>0.06522671880291972</t>
+  </si>
+  <si>
+    <t>0.046176046176046176</t>
+  </si>
+  <si>
+    <t>0.02636271414660812</t>
+  </si>
+  <si>
+    <t>0.090477079240634</t>
+  </si>
+  <si>
+    <t>0.06872168346875</t>
+  </si>
+  <si>
+    <t>0.9266943291839558</t>
+  </si>
+  <si>
+    <t>0.9611940298507463</t>
+  </si>
+  <si>
+    <t>0.5471498683013944</t>
+  </si>
+  <si>
+    <t>0.12022645538927097</t>
+  </si>
+  <si>
+    <t>0.06123811902018634</t>
+  </si>
+  <si>
+    <t>0.4977843426883309</t>
+  </si>
+  <si>
+    <t>0.27572196937178933</t>
+  </si>
+  <si>
+    <t>0.11979019723935388</t>
+  </si>
+  <si>
+    <t>0.08521523519584569</t>
+  </si>
+  <si>
+    <t>0.2139673105497771</t>
+  </si>
+  <si>
+    <t>0.1188464823337042</t>
+  </si>
+  <si>
+    <t>0.12043101320029673</t>
+  </si>
+  <si>
+    <t>0.09456772372222222</t>
+  </si>
+  <si>
+    <t>0.9715447154471545</t>
+  </si>
+  <si>
+    <t>0.9693165969316597</t>
+  </si>
+  <si>
+    <t>0.5864720686263862</t>
+  </si>
+  <si>
+    <t>0.15157596199325235</t>
+  </si>
+  <si>
+    <t>0.08685245072374101</t>
+  </si>
+  <si>
+    <t>0.7454289732770746</t>
+  </si>
+  <si>
+    <t>0.9981132075471698</t>
+  </si>
+  <si>
+    <t>0.4339996862011476</t>
+  </si>
+  <si>
+    <t>0.14955031878321676</t>
+  </si>
+  <si>
+    <t>0.10356202203780718</t>
+  </si>
+  <si>
+    <t>0.3943262411347518</t>
+  </si>
+  <si>
+    <t>0.22835935862191803</t>
+  </si>
+  <si>
+    <t>0.15244055085977337</t>
+  </si>
+  <si>
+    <t>0.13299837446762588</t>
+  </si>
+  <si>
+    <t>0.8613138686131386</t>
+  </si>
+  <si>
+    <t>0.9194915254237288</t>
+  </si>
+  <si>
+    <t>0.19330315885387944</t>
+  </si>
+  <si>
+    <t>0.09948545848363635</t>
+  </si>
+  <si>
+    <t>0.0423254319078341</t>
+  </si>
+  <si>
+    <t>0.28679245283018867</t>
+  </si>
+  <si>
+    <t>0.062450755991439386</t>
+  </si>
+  <si>
+    <t>0.0952552926716981</t>
+  </si>
+  <si>
+    <t>0.06271915327631578</t>
+  </si>
+  <si>
+    <t>0.01444043321299639</t>
+  </si>
+  <si>
+    <t>0.003300244825086311</t>
+  </si>
+  <si>
+    <t>0.09478018137410071</t>
+  </si>
+  <si>
+    <t>0.10758924824999999</t>
+  </si>
+  <si>
+    <t>0.8904109589041096</t>
+  </si>
+  <si>
+    <t>0.9648351648351648</t>
+  </si>
+  <si>
+    <t>0.3719438191953289</t>
+  </si>
+  <si>
+    <t>0.10088580943469785</t>
+  </si>
+  <si>
+    <t>0.043772329182232346</t>
+  </si>
+  <si>
+    <t>0.311284046692607</t>
+  </si>
+  <si>
+    <t>0.13111214840576396</t>
+  </si>
+  <si>
+    <t>0.10092107096899225</t>
+  </si>
+  <si>
+    <t>0.07070311275624999</t>
+  </si>
+  <si>
+    <t>0.025896414342629483</t>
+  </si>
+  <si>
+    <t>0.010709530439027346</t>
+  </si>
+  <si>
+    <t>0.10168828943737575</t>
+  </si>
+  <si>
+    <t>0.10027927238461538</t>
+  </si>
+  <si>
+    <t>0.8553888130968622</t>
+  </si>
+  <si>
+    <t>0.960127591706539</t>
+  </si>
+  <si>
+    <t>0.5118437643303265</t>
+  </si>
+  <si>
+    <t>0.09925515746268655</t>
+  </si>
+  <si>
+    <t>0.04448823449667775</t>
+  </si>
+  <si>
+    <t>0.3165905631659056</t>
+  </si>
+  <si>
+    <t>0.1703426510767379</t>
+  </si>
+  <si>
+    <t>0.09790434108939393</t>
+  </si>
+  <si>
+    <t>0.06733912872596154</t>
+  </si>
+  <si>
+    <t>0.016105417276720352</t>
+  </si>
+  <si>
+    <t>0.009073211872206584</t>
+  </si>
+  <si>
+    <t>0.10145002047877012</t>
+  </si>
+  <si>
+    <t>0.1081212489090909</t>
+  </si>
+  <si>
+    <t>0.8510158013544018</t>
+  </si>
+  <si>
+    <t>0.9602122015915119</t>
+  </si>
+  <si>
+    <t>0.6164502561925062</t>
+  </si>
+  <si>
+    <t>0.10014078241011234</t>
+  </si>
+  <si>
+    <t>0.042855388461325965</t>
+  </si>
+  <si>
+    <t>0.3470790378006873</t>
+  </si>
+  <si>
+    <t>0.24801489089754924</t>
+  </si>
+  <si>
+    <t>0.100172238869863</t>
+  </si>
+  <si>
+    <t>0.07091482162706271</t>
+  </si>
+  <si>
+    <t>0.013924050632911392</t>
+  </si>
+  <si>
+    <t>0.009072272337692325</t>
+  </si>
+  <si>
+    <t>0.10054085806944443</t>
+  </si>
+  <si>
+    <t>0.1102209699090909</t>
+  </si>
+  <si>
+    <t>0.843503937007874</t>
+  </si>
+  <si>
+    <t>0.9509918319719953</t>
+  </si>
+  <si>
+    <t>0.7001067273469902</t>
+  </si>
+  <si>
+    <t>0.1006529436875612</t>
+  </si>
+  <si>
+    <t>0.04262858959141105</t>
+  </si>
+  <si>
+    <t>0.29244357212953875</t>
+  </si>
+  <si>
+    <t>0.24465346392977744</t>
+  </si>
+  <si>
+    <t>0.09897343001273262</t>
+  </si>
+  <si>
+    <t>0.07112311811409396</t>
+  </si>
+  <si>
+    <t>0.016025641025641024</t>
+  </si>
+  <si>
+    <t>0.012348205885480076</t>
+  </si>
+  <si>
+    <t>0.09938137264718384</t>
+  </si>
+  <si>
+    <t>0.10838972666666667</t>
+  </si>
+  <si>
+    <t>0.8576923076923076</t>
+  </si>
+  <si>
+    <t>0.9461883408071748</t>
+  </si>
+  <si>
+    <t>0.3662079973412286</t>
+  </si>
+  <si>
+    <t>0.09888120297159089</t>
+  </si>
+  <si>
+    <t>0.04435169215639811</t>
+  </si>
+  <si>
+    <t>0.34600760456273766</t>
+  </si>
+  <si>
+    <t>0.14999410384220782</t>
+  </si>
+  <si>
+    <t>0.1019035421821632</t>
+  </si>
+  <si>
+    <t>0.07166485675824176</t>
+  </si>
+  <si>
+    <t>0.022448979591836733</t>
+  </si>
+  <si>
+    <t>0.009045571978847297</t>
+  </si>
+  <si>
+    <t>0.0996132719389002</t>
+  </si>
+  <si>
+    <t>0.10615227809090907</t>
+  </si>
+  <si>
+    <t>0.851063829787234</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.35984150397419923</t>
+  </si>
+  <si>
+    <t>0.09968555991682783</t>
+  </si>
+  <si>
+    <t>0.04539961188995215</t>
+  </si>
+  <si>
+    <t>0.299625468164794</t>
+  </si>
+  <si>
+    <t>0.13121092329958442</t>
+  </si>
+  <si>
+    <t>0.09954886226865671</t>
+  </si>
+  <si>
+    <t>0.0680525723625</t>
+  </si>
+  <si>
+    <t>0.009578544061302681</t>
+  </si>
+  <si>
+    <t>0.004121610440364837</t>
+  </si>
+  <si>
+    <t>0.0994770365651341</t>
+  </si>
+  <si>
+    <t>0.11000212740000001</t>
+  </si>
+  <si>
+    <t>0.8800773694390716</t>
+  </si>
+  <si>
+    <t>0.9494505494505494</t>
+  </si>
+  <si>
+    <t>0.37205380222529416</t>
+  </si>
+  <si>
+    <t>0.10066374172779922</t>
+  </si>
+  <si>
+    <t>0.04447086147685186</t>
+  </si>
+  <si>
+    <t>0.3188405797101449</t>
+  </si>
+  <si>
+    <t>0.12706246544491281</t>
+  </si>
+  <si>
+    <t>0.09829759409221311</t>
+  </si>
+  <si>
+    <t>0.06895418127922077</t>
+  </si>
+  <si>
+    <t>0.015904572564612324</t>
+  </si>
+  <si>
+    <t>0.006599762209709762</t>
+  </si>
+  <si>
+    <t>0.0996053745734127</t>
+  </si>
+  <si>
+    <t>0.1074665795</t>
+  </si>
+  <si>
+    <t>0.884313725490196</t>
+  </si>
+  <si>
+    <t>0.9578713968957872</t>
+  </si>
+  <si>
+    <t>0.36956480603383063</t>
+  </si>
+  <si>
+    <t>0.10086301144271843</t>
+  </si>
+  <si>
+    <t>0.04347474590972222</t>
+  </si>
+  <si>
+    <t>0.2870722433460076</t>
+  </si>
+  <si>
+    <t>0.12378143409107477</t>
+  </si>
+  <si>
+    <t>0.09793384399999999</t>
+  </si>
+  <si>
+    <t>0.06966046243708608</t>
+  </si>
+  <si>
+    <t>0.015180265654648957</t>
+  </si>
+  <si>
+    <t>0.006596351836969995</t>
+  </si>
+  <si>
+    <t>0.09834252030170777</t>
+  </si>
+  <si>
+    <t>0.09547998875</t>
+  </si>
+  <si>
+    <t>0.8903107861060329</t>
+  </si>
+  <si>
+    <t>0.9507186858316222</t>
+  </si>
+  <si>
+    <t>0.39886593706040196</t>
+  </si>
+  <si>
+    <t>0.10113531186363635</t>
+  </si>
+  <si>
+    <t>0.04405091225485962</t>
+  </si>
+  <si>
+    <t>0.3023255813953488</t>
+  </si>
+  <si>
+    <t>0.12776147294821572</t>
+  </si>
+  <si>
+    <t>0.09999371184139266</t>
+  </si>
+  <si>
+    <t>0.06833850609615386</t>
+  </si>
+  <si>
+    <t>0.013592233009708738</t>
+  </si>
+  <si>
+    <t>0.0058004013399884135</t>
+  </si>
+  <si>
+    <t>0.1007749342804642</t>
+  </si>
+  <si>
+    <t>0.0907049632857143</t>
+  </si>
+  <si>
+    <t>client_test_10_0.5</t>
+  </si>
+  <si>
+    <t>client_test_10_1.5</t>
+  </si>
+  <si>
+    <t>client_test_10_2.5</t>
+  </si>
+  <si>
+    <t>client_test_20_0.5</t>
+  </si>
+  <si>
+    <t>client_test_20_1.5</t>
+  </si>
+  <si>
+    <t>client_test_20_2.5</t>
+  </si>
+  <si>
+    <t>client_test_30_0.5</t>
+  </si>
+  <si>
+    <t>client_test_30_1.5</t>
+  </si>
+  <si>
+    <t>client_test_30_2.5</t>
+  </si>
+  <si>
+    <t>client_test_40_0.5</t>
+  </si>
+  <si>
+    <t>client_test_40_1.5</t>
+  </si>
+  <si>
+    <t>client_test_40_2.5</t>
+  </si>
+  <si>
+    <t>client_test_50_0.5</t>
+  </si>
+  <si>
+    <t>client_test_50_1.5</t>
+  </si>
+  <si>
+    <t>client_test_50_2.5</t>
+  </si>
+  <si>
+    <t>laxity_test_10_0.5</t>
+  </si>
+  <si>
+    <t>laxity_test_10_1.5</t>
+  </si>
+  <si>
+    <t>laxity_test_10_2.5</t>
+  </si>
+  <si>
+    <t>laxity_test_20_0.5</t>
+  </si>
+  <si>
+    <t>laxity_test_20_1.5</t>
+  </si>
+  <si>
+    <t>laxity_test_20_2.5</t>
+  </si>
+  <si>
+    <t>laxity_test_30_0.5</t>
+  </si>
+  <si>
+    <t>laxity_test_30_1.5</t>
+  </si>
+  <si>
+    <t>laxity_test_30_2.5</t>
+  </si>
+  <si>
+    <t>laxity_test_40_0.5</t>
+  </si>
+  <si>
+    <t>laxity_test_40_1.5</t>
+  </si>
+  <si>
+    <t>laxity_test_40_2.5</t>
+  </si>
+  <si>
+    <t>laxity_test_50_0.5</t>
+  </si>
+  <si>
+    <t>laxity_test_50_1.5</t>
+  </si>
+  <si>
+    <t>laxity_test_50_2.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_10_0.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_10_1.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_10_2.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_20_0.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_20_1.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_20_2.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_30_0.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_30_1.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_30_2.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_40_0.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_40_1.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_40_2.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_50_0.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_50_1.5</t>
+  </si>
+  <si>
+    <t>scale_tasks_50_2.5</t>
+  </si>
+  <si>
+    <t>var_test_10_0.5</t>
+  </si>
+  <si>
+    <t>var_test_10_1.5</t>
+  </si>
+  <si>
+    <t>var_test_10_2.5</t>
+  </si>
+  <si>
+    <t>var_test_20_0.5</t>
+  </si>
+  <si>
+    <t>var_test_20_1.5</t>
+  </si>
+  <si>
+    <t>var_test_20_2.5</t>
+  </si>
+  <si>
+    <t>var_test_30_0.5</t>
+  </si>
+  <si>
+    <t>var_test_30_1.5</t>
+  </si>
+  <si>
+    <t>var_test_30_2.5</t>
+  </si>
+  <si>
+    <t>var_test_40_0.5</t>
+  </si>
+  <si>
+    <t>var_test_40_1.5</t>
+  </si>
+  <si>
+    <t>var_test_40_2.5</t>
+  </si>
+  <si>
+    <t>var_test_50_0.5</t>
+  </si>
+  <si>
+    <t>var_test_50_1.5</t>
+  </si>
+  <si>
+    <t>var_test_50_2.5</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +2061,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1452,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:H100"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4360,6 +5327,1746 @@
         <v>101</v>
       </c>
     </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>298</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
+        <v>199</v>
+      </c>
+      <c r="G101" t="s">
+        <v>200</v>
+      </c>
+      <c r="H101" t="s">
+        <v>201</v>
+      </c>
+      <c r="I101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>267</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>204</v>
+      </c>
+      <c r="G102" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102" t="s">
+        <v>206</v>
+      </c>
+      <c r="I102" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>288</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" t="s">
+        <v>211</v>
+      </c>
+      <c r="I103" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20</v>
+      </c>
+      <c r="B104">
+        <v>598</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G104" t="s">
+        <v>215</v>
+      </c>
+      <c r="H104" t="s">
+        <v>216</v>
+      </c>
+      <c r="I104" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20</v>
+      </c>
+      <c r="B105">
+        <v>567</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" t="s">
+        <v>220</v>
+      </c>
+      <c r="I105" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20</v>
+      </c>
+      <c r="B106">
+        <v>584</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H106" t="s">
+        <v>224</v>
+      </c>
+      <c r="I106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107">
+        <v>887</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" t="s">
+        <v>226</v>
+      </c>
+      <c r="F107" t="s">
+        <v>227</v>
+      </c>
+      <c r="G107" t="s">
+        <v>228</v>
+      </c>
+      <c r="H107" t="s">
+        <v>229</v>
+      </c>
+      <c r="I107" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>30</v>
+      </c>
+      <c r="B108">
+        <v>812</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D108" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F108" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108" t="s">
+        <v>232</v>
+      </c>
+      <c r="H108" t="s">
+        <v>233</v>
+      </c>
+      <c r="I108" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>874</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" t="s">
+        <v>235</v>
+      </c>
+      <c r="G109" t="s">
+        <v>236</v>
+      </c>
+      <c r="H109" t="s">
+        <v>237</v>
+      </c>
+      <c r="I109" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>40</v>
+      </c>
+      <c r="B110">
+        <v>1185</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" t="s">
+        <v>240</v>
+      </c>
+      <c r="G110" t="s">
+        <v>241</v>
+      </c>
+      <c r="H110" t="s">
+        <v>242</v>
+      </c>
+      <c r="I110" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>1166</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111" t="s">
+        <v>244</v>
+      </c>
+      <c r="G111" t="s">
+        <v>245</v>
+      </c>
+      <c r="H111" t="s">
+        <v>246</v>
+      </c>
+      <c r="I111" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>40</v>
+      </c>
+      <c r="B112">
+        <v>1145</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D112" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" t="s">
+        <v>248</v>
+      </c>
+      <c r="G112" t="s">
+        <v>249</v>
+      </c>
+      <c r="H112" t="s">
+        <v>250</v>
+      </c>
+      <c r="I112" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>50</v>
+      </c>
+      <c r="B113">
+        <v>1448</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" t="s">
+        <v>251</v>
+      </c>
+      <c r="E113" t="s">
+        <v>252</v>
+      </c>
+      <c r="F113" t="s">
+        <v>253</v>
+      </c>
+      <c r="G113" t="s">
+        <v>254</v>
+      </c>
+      <c r="H113" t="s">
+        <v>255</v>
+      </c>
+      <c r="I113" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>50</v>
+      </c>
+      <c r="B114">
+        <v>1397</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D114" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" t="s">
+        <v>257</v>
+      </c>
+      <c r="G114" t="s">
+        <v>258</v>
+      </c>
+      <c r="H114" t="s">
+        <v>259</v>
+      </c>
+      <c r="I114" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>50</v>
+      </c>
+      <c r="B115">
+        <v>1459</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G115" t="s">
+        <v>262</v>
+      </c>
+      <c r="H115" t="s">
+        <v>263</v>
+      </c>
+      <c r="I115" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>180</v>
+      </c>
+      <c r="B116">
+        <v>687</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" t="s">
+        <v>265</v>
+      </c>
+      <c r="F116" t="s">
+        <v>266</v>
+      </c>
+      <c r="G116" t="s">
+        <v>267</v>
+      </c>
+      <c r="H116" t="s">
+        <v>268</v>
+      </c>
+      <c r="I116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>180</v>
+      </c>
+      <c r="B117">
+        <v>703</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" t="s">
+        <v>269</v>
+      </c>
+      <c r="E117" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" t="s">
+        <v>270</v>
+      </c>
+      <c r="G117" t="s">
+        <v>271</v>
+      </c>
+      <c r="H117" t="s">
+        <v>272</v>
+      </c>
+      <c r="I117" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>180</v>
+      </c>
+      <c r="B118">
+        <v>687</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" t="s">
+        <v>274</v>
+      </c>
+      <c r="G118" t="s">
+        <v>275</v>
+      </c>
+      <c r="H118" t="s">
+        <v>276</v>
+      </c>
+      <c r="I118" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>60</v>
+      </c>
+      <c r="B119">
+        <v>765</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D119" t="s">
+        <v>277</v>
+      </c>
+      <c r="E119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F119" t="s">
+        <v>279</v>
+      </c>
+      <c r="G119" t="s">
+        <v>280</v>
+      </c>
+      <c r="H119" t="s">
+        <v>281</v>
+      </c>
+      <c r="I119" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>60</v>
+      </c>
+      <c r="B120">
+        <v>719</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>282</v>
+      </c>
+      <c r="E120" t="s">
+        <v>283</v>
+      </c>
+      <c r="F120" t="s">
+        <v>284</v>
+      </c>
+      <c r="G120" t="s">
+        <v>285</v>
+      </c>
+      <c r="H120" t="s">
+        <v>286</v>
+      </c>
+      <c r="I120" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>60</v>
+      </c>
+      <c r="B121">
+        <v>740</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D121" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" t="s">
+        <v>287</v>
+      </c>
+      <c r="H121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>90</v>
+      </c>
+      <c r="B122">
+        <v>741</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" t="s">
+        <v>288</v>
+      </c>
+      <c r="E122" t="s">
+        <v>289</v>
+      </c>
+      <c r="F122" t="s">
+        <v>290</v>
+      </c>
+      <c r="G122" t="s">
+        <v>291</v>
+      </c>
+      <c r="H122" t="s">
+        <v>292</v>
+      </c>
+      <c r="I122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>90</v>
+      </c>
+      <c r="B123">
+        <v>684</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D123" t="s">
+        <v>293</v>
+      </c>
+      <c r="E123" t="s">
+        <v>120</v>
+      </c>
+      <c r="F123" t="s">
+        <v>294</v>
+      </c>
+      <c r="G123" t="s">
+        <v>295</v>
+      </c>
+      <c r="H123" t="s">
+        <v>296</v>
+      </c>
+      <c r="I123" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>90</v>
+      </c>
+      <c r="B124">
+        <v>693</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D124" t="s">
+        <v>297</v>
+      </c>
+      <c r="E124" t="s">
+        <v>120</v>
+      </c>
+      <c r="F124" t="s">
+        <v>298</v>
+      </c>
+      <c r="G124" t="s">
+        <v>299</v>
+      </c>
+      <c r="H124" t="s">
+        <v>300</v>
+      </c>
+      <c r="I124" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>120</v>
+      </c>
+      <c r="B125">
+        <v>723</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
+        <v>303</v>
+      </c>
+      <c r="G125" t="s">
+        <v>304</v>
+      </c>
+      <c r="H125" t="s">
+        <v>305</v>
+      </c>
+      <c r="I125" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <v>677</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" t="s">
+        <v>306</v>
+      </c>
+      <c r="E126" t="s">
+        <v>120</v>
+      </c>
+      <c r="F126" t="s">
+        <v>307</v>
+      </c>
+      <c r="G126" t="s">
+        <v>308</v>
+      </c>
+      <c r="H126" t="s">
+        <v>309</v>
+      </c>
+      <c r="I126" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>120</v>
+      </c>
+      <c r="B127">
+        <v>673</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D127" t="s">
+        <v>310</v>
+      </c>
+      <c r="E127" t="s">
+        <v>120</v>
+      </c>
+      <c r="F127" t="s">
+        <v>311</v>
+      </c>
+      <c r="G127" t="s">
+        <v>312</v>
+      </c>
+      <c r="H127" t="s">
+        <v>313</v>
+      </c>
+      <c r="I127" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>150</v>
+      </c>
+      <c r="B128">
+        <v>738</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" t="s">
+        <v>314</v>
+      </c>
+      <c r="E128" t="s">
+        <v>315</v>
+      </c>
+      <c r="F128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G128" t="s">
+        <v>317</v>
+      </c>
+      <c r="H128" t="s">
+        <v>318</v>
+      </c>
+      <c r="I128" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>150</v>
+      </c>
+      <c r="B129">
+        <v>711</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E129" t="s">
+        <v>320</v>
+      </c>
+      <c r="F129" t="s">
+        <v>321</v>
+      </c>
+      <c r="G129" t="s">
+        <v>322</v>
+      </c>
+      <c r="H129" t="s">
+        <v>323</v>
+      </c>
+      <c r="I129" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>150</v>
+      </c>
+      <c r="B130">
+        <v>705</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D130" t="s">
+        <v>324</v>
+      </c>
+      <c r="E130" t="s">
+        <v>120</v>
+      </c>
+      <c r="F130" t="s">
+        <v>325</v>
+      </c>
+      <c r="G130" t="s">
+        <v>326</v>
+      </c>
+      <c r="H130" t="s">
+        <v>327</v>
+      </c>
+      <c r="I130" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131">
+        <v>274</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" t="s">
+        <v>329</v>
+      </c>
+      <c r="F131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G131" t="s">
+        <v>331</v>
+      </c>
+      <c r="H131" t="s">
+        <v>332</v>
+      </c>
+      <c r="I131" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <v>265</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" t="s">
+        <v>333</v>
+      </c>
+      <c r="E132" t="s">
+        <v>120</v>
+      </c>
+      <c r="F132" t="s">
+        <v>334</v>
+      </c>
+      <c r="G132" t="s">
+        <v>335</v>
+      </c>
+      <c r="H132" t="s">
+        <v>336</v>
+      </c>
+      <c r="I132" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>277</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>337</v>
+      </c>
+      <c r="E133" t="s">
+        <v>120</v>
+      </c>
+      <c r="F133" t="s">
+        <v>338</v>
+      </c>
+      <c r="G133" t="s">
+        <v>339</v>
+      </c>
+      <c r="H133" t="s">
+        <v>340</v>
+      </c>
+      <c r="I133" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134">
+        <v>511</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D134" t="s">
+        <v>341</v>
+      </c>
+      <c r="E134" t="s">
+        <v>342</v>
+      </c>
+      <c r="F134" t="s">
+        <v>343</v>
+      </c>
+      <c r="G134" t="s">
+        <v>344</v>
+      </c>
+      <c r="H134" t="s">
+        <v>345</v>
+      </c>
+      <c r="I134" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20</v>
+      </c>
+      <c r="B135">
+        <v>514</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" t="s">
+        <v>346</v>
+      </c>
+      <c r="E135" t="s">
+        <v>120</v>
+      </c>
+      <c r="F135" t="s">
+        <v>347</v>
+      </c>
+      <c r="G135" t="s">
+        <v>348</v>
+      </c>
+      <c r="H135" t="s">
+        <v>349</v>
+      </c>
+      <c r="I135" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20</v>
+      </c>
+      <c r="B136">
+        <v>502</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" t="s">
+        <v>350</v>
+      </c>
+      <c r="E136" t="s">
+        <v>120</v>
+      </c>
+      <c r="F136" t="s">
+        <v>351</v>
+      </c>
+      <c r="G136" t="s">
+        <v>352</v>
+      </c>
+      <c r="H136" t="s">
+        <v>353</v>
+      </c>
+      <c r="I136" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>30</v>
+      </c>
+      <c r="B137">
+        <v>733</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137" t="s">
+        <v>354</v>
+      </c>
+      <c r="E137" t="s">
+        <v>355</v>
+      </c>
+      <c r="F137" t="s">
+        <v>356</v>
+      </c>
+      <c r="G137" t="s">
+        <v>357</v>
+      </c>
+      <c r="H137" t="s">
+        <v>358</v>
+      </c>
+      <c r="I137" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>30</v>
+      </c>
+      <c r="B138">
+        <v>657</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D138" t="s">
+        <v>359</v>
+      </c>
+      <c r="E138" t="s">
+        <v>120</v>
+      </c>
+      <c r="F138" t="s">
+        <v>360</v>
+      </c>
+      <c r="G138" t="s">
+        <v>361</v>
+      </c>
+      <c r="H138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I138" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>30</v>
+      </c>
+      <c r="B139">
+        <v>683</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D139" t="s">
+        <v>363</v>
+      </c>
+      <c r="E139" t="s">
+        <v>120</v>
+      </c>
+      <c r="F139" t="s">
+        <v>364</v>
+      </c>
+      <c r="G139" t="s">
+        <v>365</v>
+      </c>
+      <c r="H139" t="s">
+        <v>366</v>
+      </c>
+      <c r="I139" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>40</v>
+      </c>
+      <c r="B140">
+        <v>886</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140" t="s">
+        <v>367</v>
+      </c>
+      <c r="E140" t="s">
+        <v>368</v>
+      </c>
+      <c r="F140" t="s">
+        <v>369</v>
+      </c>
+      <c r="G140" t="s">
+        <v>370</v>
+      </c>
+      <c r="H140" t="s">
+        <v>371</v>
+      </c>
+      <c r="I140" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>40</v>
+      </c>
+      <c r="B141">
+        <v>873</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" t="s">
+        <v>373</v>
+      </c>
+      <c r="G141" t="s">
+        <v>374</v>
+      </c>
+      <c r="H141" t="s">
+        <v>375</v>
+      </c>
+      <c r="I141" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>40</v>
+      </c>
+      <c r="B142">
+        <v>790</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" t="s">
+        <v>376</v>
+      </c>
+      <c r="E142" t="s">
+        <v>120</v>
+      </c>
+      <c r="F142" t="s">
+        <v>377</v>
+      </c>
+      <c r="G142" t="s">
+        <v>378</v>
+      </c>
+      <c r="H142" t="s">
+        <v>379</v>
+      </c>
+      <c r="I142" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>50</v>
+      </c>
+      <c r="B143">
+        <v>1016</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" t="s">
+        <v>380</v>
+      </c>
+      <c r="E143" t="s">
+        <v>381</v>
+      </c>
+      <c r="F143" t="s">
+        <v>382</v>
+      </c>
+      <c r="G143" t="s">
+        <v>383</v>
+      </c>
+      <c r="H143" t="s">
+        <v>384</v>
+      </c>
+      <c r="I143" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>50</v>
+      </c>
+      <c r="B144">
+        <v>1019</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D144" t="s">
+        <v>385</v>
+      </c>
+      <c r="E144" t="s">
+        <v>120</v>
+      </c>
+      <c r="F144" t="s">
+        <v>386</v>
+      </c>
+      <c r="G144" t="s">
+        <v>387</v>
+      </c>
+      <c r="H144" t="s">
+        <v>388</v>
+      </c>
+      <c r="I144" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>50</v>
+      </c>
+      <c r="B145">
+        <v>936</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D145" t="s">
+        <v>389</v>
+      </c>
+      <c r="E145" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" t="s">
+        <v>390</v>
+      </c>
+      <c r="G145" t="s">
+        <v>391</v>
+      </c>
+      <c r="H145" t="s">
+        <v>392</v>
+      </c>
+      <c r="I145" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <v>520</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D146" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" t="s">
+        <v>394</v>
+      </c>
+      <c r="F146" t="s">
+        <v>395</v>
+      </c>
+      <c r="G146" t="s">
+        <v>396</v>
+      </c>
+      <c r="H146" t="s">
+        <v>397</v>
+      </c>
+      <c r="I146" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>10</v>
+      </c>
+      <c r="B147">
+        <v>526</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" t="s">
+        <v>398</v>
+      </c>
+      <c r="E147" t="s">
+        <v>120</v>
+      </c>
+      <c r="F147" t="s">
+        <v>399</v>
+      </c>
+      <c r="G147" t="s">
+        <v>400</v>
+      </c>
+      <c r="H147" t="s">
+        <v>401</v>
+      </c>
+      <c r="I147" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>10</v>
+      </c>
+      <c r="B148">
+        <v>490</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" t="s">
+        <v>402</v>
+      </c>
+      <c r="E148" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" t="s">
+        <v>403</v>
+      </c>
+      <c r="G148" t="s">
+        <v>404</v>
+      </c>
+      <c r="H148" t="s">
+        <v>405</v>
+      </c>
+      <c r="I148" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>517</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D149" t="s">
+        <v>406</v>
+      </c>
+      <c r="E149" t="s">
+        <v>407</v>
+      </c>
+      <c r="F149" t="s">
+        <v>408</v>
+      </c>
+      <c r="G149" t="s">
+        <v>409</v>
+      </c>
+      <c r="H149" t="s">
+        <v>410</v>
+      </c>
+      <c r="I149" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>534</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D150" t="s">
+        <v>411</v>
+      </c>
+      <c r="E150" t="s">
+        <v>120</v>
+      </c>
+      <c r="F150" t="s">
+        <v>412</v>
+      </c>
+      <c r="G150" t="s">
+        <v>413</v>
+      </c>
+      <c r="H150" t="s">
+        <v>414</v>
+      </c>
+      <c r="I150" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>522</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D151" t="s">
+        <v>415</v>
+      </c>
+      <c r="E151" t="s">
+        <v>120</v>
+      </c>
+      <c r="F151" t="s">
+        <v>416</v>
+      </c>
+      <c r="G151" t="s">
+        <v>417</v>
+      </c>
+      <c r="H151" t="s">
+        <v>418</v>
+      </c>
+      <c r="I151" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>30</v>
+      </c>
+      <c r="B152">
+        <v>517</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E152" t="s">
+        <v>420</v>
+      </c>
+      <c r="F152" t="s">
+        <v>421</v>
+      </c>
+      <c r="G152" t="s">
+        <v>422</v>
+      </c>
+      <c r="H152" t="s">
+        <v>423</v>
+      </c>
+      <c r="I152" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>30</v>
+      </c>
+      <c r="B153">
+        <v>483</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D153" t="s">
+        <v>424</v>
+      </c>
+      <c r="E153" t="s">
+        <v>120</v>
+      </c>
+      <c r="F153" t="s">
+        <v>425</v>
+      </c>
+      <c r="G153" t="s">
+        <v>426</v>
+      </c>
+      <c r="H153" t="s">
+        <v>427</v>
+      </c>
+      <c r="I153" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>30</v>
+      </c>
+      <c r="B154">
+        <v>503</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" t="s">
+        <v>428</v>
+      </c>
+      <c r="E154" t="s">
+        <v>120</v>
+      </c>
+      <c r="F154" t="s">
+        <v>429</v>
+      </c>
+      <c r="G154" t="s">
+        <v>430</v>
+      </c>
+      <c r="H154" t="s">
+        <v>431</v>
+      </c>
+      <c r="I154" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>40</v>
+      </c>
+      <c r="B155">
+        <v>510</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D155" t="s">
+        <v>432</v>
+      </c>
+      <c r="E155" t="s">
+        <v>433</v>
+      </c>
+      <c r="F155" t="s">
+        <v>434</v>
+      </c>
+      <c r="G155" t="s">
+        <v>435</v>
+      </c>
+      <c r="H155" t="s">
+        <v>436</v>
+      </c>
+      <c r="I155" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>40</v>
+      </c>
+      <c r="B156">
+        <v>526</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" t="s">
+        <v>437</v>
+      </c>
+      <c r="E156" t="s">
+        <v>120</v>
+      </c>
+      <c r="F156" t="s">
+        <v>438</v>
+      </c>
+      <c r="G156" t="s">
+        <v>439</v>
+      </c>
+      <c r="H156" t="s">
+        <v>440</v>
+      </c>
+      <c r="I156" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>40</v>
+      </c>
+      <c r="B157">
+        <v>527</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" t="s">
+        <v>441</v>
+      </c>
+      <c r="E157" t="s">
+        <v>120</v>
+      </c>
+      <c r="F157" t="s">
+        <v>442</v>
+      </c>
+      <c r="G157" t="s">
+        <v>443</v>
+      </c>
+      <c r="H157" t="s">
+        <v>444</v>
+      </c>
+      <c r="I157" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>50</v>
+      </c>
+      <c r="B158">
+        <v>547</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D158" t="s">
+        <v>445</v>
+      </c>
+      <c r="E158" t="s">
+        <v>446</v>
+      </c>
+      <c r="F158" t="s">
+        <v>447</v>
+      </c>
+      <c r="G158" t="s">
+        <v>448</v>
+      </c>
+      <c r="H158" t="s">
+        <v>449</v>
+      </c>
+      <c r="I158" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>50</v>
+      </c>
+      <c r="B159">
+        <v>516</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D159" t="s">
+        <v>450</v>
+      </c>
+      <c r="E159" t="s">
+        <v>120</v>
+      </c>
+      <c r="F159" t="s">
+        <v>451</v>
+      </c>
+      <c r="G159" t="s">
+        <v>452</v>
+      </c>
+      <c r="H159" t="s">
+        <v>453</v>
+      </c>
+      <c r="I159" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>50</v>
+      </c>
+      <c r="B160">
+        <v>515</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D160" t="s">
+        <v>454</v>
+      </c>
+      <c r="E160" t="s">
+        <v>120</v>
+      </c>
+      <c r="F160" t="s">
+        <v>455</v>
+      </c>
+      <c r="G160" t="s">
+        <v>456</v>
+      </c>
+      <c r="H160" t="s">
+        <v>457</v>
+      </c>
+      <c r="I160" t="s">
+        <v>517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4367,10 +7074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5054,6 +7761,396 @@
         <v>195</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>520</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27" t="s">
+        <v>395</v>
+      </c>
+      <c r="G27" t="s">
+        <v>396</v>
+      </c>
+      <c r="H27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>526</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>399</v>
+      </c>
+      <c r="G28" t="s">
+        <v>400</v>
+      </c>
+      <c r="H28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>490</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>403</v>
+      </c>
+      <c r="G29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>517</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="s">
+        <v>406</v>
+      </c>
+      <c r="E30" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" t="s">
+        <v>408</v>
+      </c>
+      <c r="G30" t="s">
+        <v>409</v>
+      </c>
+      <c r="H30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>534</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>412</v>
+      </c>
+      <c r="G31" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>522</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>517</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" t="s">
+        <v>420</v>
+      </c>
+      <c r="F33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G33" t="s">
+        <v>422</v>
+      </c>
+      <c r="H33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>483</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>425</v>
+      </c>
+      <c r="G34" t="s">
+        <v>426</v>
+      </c>
+      <c r="H34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>503</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>429</v>
+      </c>
+      <c r="G35" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>510</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" t="s">
+        <v>433</v>
+      </c>
+      <c r="F36" t="s">
+        <v>434</v>
+      </c>
+      <c r="G36" t="s">
+        <v>435</v>
+      </c>
+      <c r="H36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>526</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G37" t="s">
+        <v>439</v>
+      </c>
+      <c r="H37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>527</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>441</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>547</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" t="s">
+        <v>446</v>
+      </c>
+      <c r="F39" t="s">
+        <v>447</v>
+      </c>
+      <c r="G39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>516</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>450</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>451</v>
+      </c>
+      <c r="G40" t="s">
+        <v>452</v>
+      </c>
+      <c r="H40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>515</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>455</v>
+      </c>
+      <c r="G41" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5061,10 +8158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5745,6 +8842,396 @@
         <v>2.9257880791798099E-2</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>274</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>265</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" t="s">
+        <v>335</v>
+      </c>
+      <c r="H28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>277</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>511</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>514</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>347</v>
+      </c>
+      <c r="G31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>502</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" t="s">
+        <v>352</v>
+      </c>
+      <c r="H32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>733</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>657</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" t="s">
+        <v>361</v>
+      </c>
+      <c r="H34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>683</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" t="s">
+        <v>365</v>
+      </c>
+      <c r="H35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>886</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" t="s">
+        <v>370</v>
+      </c>
+      <c r="H36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>873</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" t="s">
+        <v>374</v>
+      </c>
+      <c r="H37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>790</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>376</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>377</v>
+      </c>
+      <c r="G38" t="s">
+        <v>378</v>
+      </c>
+      <c r="H38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>1016</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>380</v>
+      </c>
+      <c r="E39" t="s">
+        <v>381</v>
+      </c>
+      <c r="F39" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>1019</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G40" t="s">
+        <v>387</v>
+      </c>
+      <c r="H40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>936</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G41" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5752,10 +9239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6440,6 +9927,396 @@
         <v>3.09953152164179E-2</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>180</v>
+      </c>
+      <c r="B27">
+        <v>687</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>703</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>687</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>765</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>719</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>740</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>741</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>684</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <v>693</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>120</v>
+      </c>
+      <c r="B36">
+        <v>723</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>301</v>
+      </c>
+      <c r="E36" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>677</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>308</v>
+      </c>
+      <c r="H37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>120</v>
+      </c>
+      <c r="B38">
+        <v>673</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>312</v>
+      </c>
+      <c r="H38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>150</v>
+      </c>
+      <c r="B39">
+        <v>738</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" t="s">
+        <v>315</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>711</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>322</v>
+      </c>
+      <c r="H40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>150</v>
+      </c>
+      <c r="B41">
+        <v>705</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H41" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6447,10 +10324,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7137,6 +11014,396 @@
         <v>2.2962064800000001E-2</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>298</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>267</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>288</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>598</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>567</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>584</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>887</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>812</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>874</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>1185</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>1166</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>1145</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>249</v>
+      </c>
+      <c r="H38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>1448</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>1397</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>1459</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/eval/results/100ms_results/results.xlsx
+++ b/eval/results/100ms_results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Real-Time-Offloading-Simulator/eval/results/100ms_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D0C31-C786-CF4F-AE41-28AB026A3F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406097AE-2EFF-6C4A-8824-7BA28B320159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -1584,6 +1584,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2061,9 +2064,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2421,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A101" sqref="A101:I160"/>
     </sheetView>
   </sheetViews>
@@ -7076,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7243,80 +7247,80 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>542</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>520</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>396</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>524</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>526</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
         <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>399</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>497</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
+        <v>490</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7324,25 +7328,25 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7350,727 +7354,727 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>518</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>524</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
         <v>120</v>
       </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>516</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
+        <v>518</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>508</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>517</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>407</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>545</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
+        <v>534</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
         <v>120</v>
       </c>
-      <c r="E16" t="s">
-        <v>163</v>
-      </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>413</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>528</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>522</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
         <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>417</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>506</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>494</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
+        <v>508</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>535</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>545</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>496</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
+        <v>517</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>419</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>421</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>422</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>497</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
+        <v>483</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>424</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="H24" t="s">
-        <v>2</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>498</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
+        <v>503</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>429</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>430</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>548</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
+        <v>528</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
-        <v>192</v>
-      </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>520</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>196</v>
+        <v>503</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
-        <v>394</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>395</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>396</v>
+        <v>173</v>
       </c>
       <c r="H27" t="s">
-        <v>397</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>526</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>202</v>
+        <v>506</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>401</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>490</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
+      <c r="C29">
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>402</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>405</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>517</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>494</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>407</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>410</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>534</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>510</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>433</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="G31" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="H31" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>522</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>526</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E32" t="s">
         <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="G32" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="H32" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>517</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>527</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="E33" t="s">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="G33" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="H33" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>483</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>202</v>
+        <v>535</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>426</v>
+        <v>184</v>
       </c>
       <c r="H34" t="s">
-        <v>427</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>503</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>496</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>186</v>
       </c>
       <c r="E35" t="s">
         <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>429</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>430</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>431</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>510</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
+        <v>497</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>432</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>434</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="H36" t="s">
-        <v>436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>526</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>202</v>
+        <v>498</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>438</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>440</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>527</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>207</v>
+        <v>548</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
-        <v>442</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>443</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>444</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -8080,7 +8084,7 @@
       <c r="B39">
         <v>547</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D39" t="s">
@@ -8106,7 +8110,7 @@
       <c r="B40">
         <v>516</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D40" t="s">
@@ -8132,7 +8136,7 @@
       <c r="B41">
         <v>515</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D41" t="s">
@@ -8152,6 +8156,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8160,8 +8167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8324,80 +8331,80 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>574</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.63066202090592305</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.296089810177665</v>
-      </c>
-      <c r="G7">
-        <v>0.10001169985391301</v>
-      </c>
-      <c r="H7">
-        <v>5.5624055779005498E-2</v>
+        <v>274</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>504</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>6.7460317460317401E-2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2.79596733864639E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.100852175598814</v>
-      </c>
-      <c r="H8">
-        <v>8.4897546529411699E-2</v>
+        <v>265</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>458</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.10233496207173901</v>
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" t="s">
+        <v>339</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -8405,25 +8412,25 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
+        <v>0.63066202090592305</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.296089810177665</v>
       </c>
       <c r="G10">
-        <v>0.100467790335329</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
+        <v>0.10001169985391301</v>
+      </c>
+      <c r="H10">
+        <v>5.5624055779005498E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8431,244 +8438,244 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>498</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>504</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6.7460317460317401E-2</v>
       </c>
       <c r="E11">
-        <v>0.791164658634538</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.41140693542166701</v>
+        <v>2.79596733864639E-2</v>
       </c>
       <c r="G11">
-        <v>9.8922583932135696E-2</v>
+        <v>0.100852175598814</v>
       </c>
       <c r="H11">
-        <v>4.2254844710659899E-2</v>
+        <v>8.4897546529411699E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>732</v>
+        <v>458</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.66393442622950805</v>
-      </c>
-      <c r="E12">
-        <v>0.99176954732510203</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.39800126640442202</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.102494100231923</v>
-      </c>
-      <c r="H12">
-        <v>5.5861443811203303E-2</v>
+        <v>0.10233496207173901</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>649</v>
+        <v>500</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>9.5531587057010703E-2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>5.09813598029712E-2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>9.9106915301538395E-2</v>
-      </c>
-      <c r="H13">
-        <v>8.9561662258064501E-2</v>
+        <v>0.100467790335329</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>692</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
+        <v>498</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.791164658634538</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.41140693542166701</v>
       </c>
       <c r="G14">
-        <v>9.8712562441558405E-2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
+        <v>9.8922583932135696E-2</v>
+      </c>
+      <c r="H14">
+        <v>4.2254844710659899E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>636</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>341</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.101297670268025</v>
+        <v>342</v>
+      </c>
+      <c r="F15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" t="s">
+        <v>344</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>700</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.69142857142857095</v>
-      </c>
-      <c r="F16">
-        <v>0.57288997888913895</v>
-      </c>
-      <c r="G16">
-        <v>9.9964406746799406E-2</v>
-      </c>
-      <c r="H16">
-        <v>3.72664187107438E-2</v>
+        <v>514</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G16" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>912</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.63815789473684204</v>
-      </c>
-      <c r="E17">
-        <v>0.99828178694157998</v>
-      </c>
-      <c r="F17">
-        <v>0.47650394379337502</v>
-      </c>
-      <c r="G17">
-        <v>9.91966555317286E-2</v>
-      </c>
-      <c r="H17">
-        <v>5.4226535323580002E-2</v>
+        <v>502</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>859</v>
+        <v>732</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>9.5459837019790397E-2</v>
+        <v>0.66393442622950805</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.99176954732510203</v>
       </c>
       <c r="F18">
-        <v>6.7341797093147901E-2</v>
+        <v>0.39800126640442202</v>
       </c>
       <c r="G18">
-        <v>0.100136585980278</v>
+        <v>0.102494100231923</v>
       </c>
       <c r="H18">
-        <v>8.9503700085365803E-2</v>
+        <v>5.5861443811203303E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>817</v>
+        <v>649</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
+        <v>9.5531587057010703E-2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5.09813598029712E-2</v>
       </c>
       <c r="G19">
-        <v>9.9594428431013404E-2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
+        <v>9.9106915301538395E-2</v>
+      </c>
+      <c r="H19">
+        <v>8.9561662258064501E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>843</v>
+        <v>692</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8680,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>9.9341310346381898E-2</v>
+        <v>9.8712562441558405E-2</v>
       </c>
       <c r="H20" t="s">
         <v>2</v>
@@ -8688,470 +8695,470 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>700</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
+        <v>636</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.40714285714285697</v>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.574938365454852</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.100572354031117</v>
-      </c>
-      <c r="H21">
-        <v>3.7863600859649099E-2</v>
+        <v>0.101297670268025</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>1084</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>700</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0.645756457564575</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.99285714285714199</v>
+        <v>0.69142857142857095</v>
       </c>
       <c r="F22">
-        <v>0.57170715663018901</v>
+        <v>0.57288997888913895</v>
       </c>
       <c r="G22">
-        <v>0.10001266779024801</v>
+        <v>9.9964406746799406E-2</v>
       </c>
       <c r="H22">
-        <v>5.3313234756834499E-2</v>
+        <v>3.72664187107438E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>922</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>7.1583514099783002E-2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>5.4216957622138899E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.10037608441495099</v>
-      </c>
-      <c r="H23">
-        <v>9.0546043287878797E-2</v>
+        <v>733</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>908</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1.1013215859030799E-3</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>8.2375919597685104E-4</v>
-      </c>
-      <c r="G24">
-        <v>0.101738178608122</v>
-      </c>
-      <c r="H24">
-        <v>0.114976783</v>
+        <v>657</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>943</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>683</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>363</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0.100380246983032</v>
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" t="s">
+        <v>365</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>860</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
+        <v>912</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.63815789473684204</v>
       </c>
       <c r="E26">
-        <v>0.36860465116279001</v>
+        <v>0.99828178694157998</v>
       </c>
       <c r="F26">
-        <v>0.71008542189659196</v>
+        <v>0.47650394379337502</v>
       </c>
       <c r="G26">
-        <v>9.8797090500000004E-2</v>
+        <v>9.91966555317286E-2</v>
       </c>
       <c r="H26">
-        <v>2.9257880791798099E-2</v>
+        <v>5.4226535323580002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>274</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>328</v>
-      </c>
-      <c r="E27" t="s">
-        <v>329</v>
-      </c>
-      <c r="F27" t="s">
-        <v>330</v>
-      </c>
-      <c r="G27" t="s">
-        <v>331</v>
-      </c>
-      <c r="H27" t="s">
-        <v>332</v>
+        <v>859</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>9.5459837019790397E-2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>6.7341797093147901E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.100136585980278</v>
+      </c>
+      <c r="H27">
+        <v>8.9503700085365803E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>265</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>333</v>
+        <v>817</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>334</v>
-      </c>
-      <c r="G28" t="s">
-        <v>335</v>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>9.9594428431013404E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>277</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>337</v>
+        <v>843</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s">
-        <v>338</v>
-      </c>
-      <c r="G29" t="s">
-        <v>339</v>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>9.9341310346381898E-2</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>511</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" t="s">
-        <v>341</v>
-      </c>
-      <c r="E30" t="s">
-        <v>342</v>
-      </c>
-      <c r="F30" t="s">
-        <v>343</v>
-      </c>
-      <c r="G30" t="s">
-        <v>344</v>
-      </c>
-      <c r="H30" t="s">
-        <v>345</v>
+        <v>700</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.40714285714285697</v>
+      </c>
+      <c r="F30">
+        <v>0.574938365454852</v>
+      </c>
+      <c r="G30">
+        <v>0.100572354031117</v>
+      </c>
+      <c r="H30">
+        <v>3.7863600859649099E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>514</v>
+        <v>886</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G31" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="H31" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>502</v>
+        <v>873</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E32" t="s">
         <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G32" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="H32" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>733</v>
+        <v>790</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="E33" t="s">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="G33" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="H33" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>657</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" t="s">
-        <v>360</v>
-      </c>
-      <c r="G34" t="s">
-        <v>361</v>
-      </c>
-      <c r="H34" t="s">
-        <v>362</v>
+        <v>1084</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.645756457564575</v>
+      </c>
+      <c r="E34">
+        <v>0.99285714285714199</v>
+      </c>
+      <c r="F34">
+        <v>0.57170715663018901</v>
+      </c>
+      <c r="G34">
+        <v>0.10001266779024801</v>
+      </c>
+      <c r="H34">
+        <v>5.3313234756834499E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>683</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>363</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>364</v>
-      </c>
-      <c r="G35" t="s">
-        <v>365</v>
-      </c>
-      <c r="H35" t="s">
-        <v>366</v>
+        <v>922</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>7.1583514099783002E-2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5.4216957622138899E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.10037608441495099</v>
+      </c>
+      <c r="H35">
+        <v>9.0546043287878797E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>886</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" t="s">
-        <v>368</v>
-      </c>
-      <c r="F36" t="s">
-        <v>369</v>
-      </c>
-      <c r="G36" t="s">
-        <v>370</v>
-      </c>
-      <c r="H36" t="s">
-        <v>371</v>
+        <v>908</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1.1013215859030799E-3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>8.2375919597685104E-4</v>
+      </c>
+      <c r="G36">
+        <v>0.101738178608122</v>
+      </c>
+      <c r="H36">
+        <v>0.114976783</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>873</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>372</v>
+        <v>943</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>373</v>
-      </c>
-      <c r="G37" t="s">
-        <v>374</v>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.100380246983032</v>
       </c>
       <c r="H37" t="s">
-        <v>375</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>790</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>376</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>377</v>
-      </c>
-      <c r="G38" t="s">
-        <v>378</v>
-      </c>
-      <c r="H38" t="s">
-        <v>379</v>
+        <v>860</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.36860465116279001</v>
+      </c>
+      <c r="F38">
+        <v>0.71008542189659196</v>
+      </c>
+      <c r="G38">
+        <v>9.8797090500000004E-2</v>
+      </c>
+      <c r="H38">
+        <v>2.9257880791798099E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -9233,6 +9240,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9241,8 +9251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9279,114 +9289,114 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.80592991913746603</v>
+        <v>0.94217207334273601</v>
       </c>
       <c r="E2">
-        <v>0.98996655518394605</v>
+        <v>0.99700598802395202</v>
       </c>
       <c r="F2">
-        <v>0.49057978943893299</v>
+        <v>0.54728486708735902</v>
       </c>
       <c r="G2">
-        <v>0.11837838124932901</v>
+        <v>0.178361645001402</v>
       </c>
       <c r="H2">
-        <v>6.7192155084459401E-2</v>
+        <v>0.1173843044009</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B3">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.31372549019607798</v>
+        <v>0.67575322812051597</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.18337709390995899</v>
+        <v>0.385807593315181</v>
       </c>
       <c r="G3">
-        <v>0.120285315187675</v>
+        <v>0.18052159287428499</v>
       </c>
       <c r="H3">
-        <v>9.5940830732142796E-2</v>
+        <v>0.14290281706794</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B4">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.108597285067873</v>
+        <v>0.29073482428114999</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5.9152553934279303E-2</v>
+        <v>0.150078897207509</v>
       </c>
       <c r="G4">
-        <v>0.118646806266866</v>
+        <v>0.179226362901273</v>
       </c>
       <c r="H4">
-        <v>0.10663840902777701</v>
+        <v>0.16968063013736201</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B5">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2.4883359253499202E-2</v>
+        <v>0.26267281105990697</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.31537444691152E-2</v>
+        <v>0.14008901471558299</v>
       </c>
       <c r="G5">
-        <v>0.12154586446500699</v>
+        <v>0.18044695156901799</v>
       </c>
       <c r="H5">
-        <v>0.1186932798125</v>
+        <v>0.16956124622222199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B6">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -9395,94 +9405,94 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.67633587786259497</v>
+        <v>0.91168091168091103</v>
       </c>
       <c r="F6">
-        <v>0.53525698735502403</v>
+        <v>0.57625842249543202</v>
       </c>
       <c r="G6">
-        <v>0.11731473954999901</v>
+        <v>0.17767633354107601</v>
       </c>
       <c r="H6">
-        <v>4.7460517422121901E-2</v>
+        <v>9.2829002143750006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B7">
-        <v>679</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.91605301914580195</v>
-      </c>
-      <c r="E7">
-        <v>0.99356913183279705</v>
-      </c>
-      <c r="F7">
-        <v>0.50978667948920697</v>
-      </c>
-      <c r="G7">
-        <v>0.15198500465204601</v>
-      </c>
-      <c r="H7">
-        <v>9.4745911634304195E-2</v>
+        <v>687</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <v>695</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0.54388489208633095</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.30909670894389502</v>
-      </c>
-      <c r="G8">
-        <v>0.148038866015759</v>
-      </c>
-      <c r="H8">
-        <v>0.115885011571428</v>
+        <v>703</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B9">
-        <v>655</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0.31755725190839601</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.170296021934667</v>
-      </c>
-      <c r="G9">
-        <v>0.15143590463109699</v>
-      </c>
-      <c r="H9">
-        <v>0.13344005501923001</v>
+        <v>687</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -9490,25 +9500,25 @@
         <v>150</v>
       </c>
       <c r="B10">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6.4308681672025705E-2</v>
+        <v>0.91605301914580195</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.99356913183279705</v>
       </c>
       <c r="F10">
-        <v>3.2864813414646303E-2</v>
+        <v>0.50978667948920697</v>
       </c>
       <c r="G10">
-        <v>0.15448896304173301</v>
+        <v>0.15198500465204601</v>
       </c>
       <c r="H10">
-        <v>0.15727358012499901</v>
+        <v>9.4745911634304195E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -9516,389 +9526,389 @@
         <v>150</v>
       </c>
       <c r="B11">
-        <v>707</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>695</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.54388489208633095</v>
       </c>
       <c r="E11">
-        <v>0.92927864214992895</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.57998922258573304</v>
+        <v>0.30909670894389502</v>
       </c>
       <c r="G11">
-        <v>0.149495151390449</v>
+        <v>0.148038866015759</v>
       </c>
       <c r="H11">
-        <v>8.2472841082191703E-2</v>
+        <v>0.115885011571428</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>709</v>
+        <v>655</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.94217207334273601</v>
+        <v>0.31755725190839601</v>
       </c>
       <c r="E12">
-        <v>0.99700598802395202</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.54728486708735902</v>
+        <v>0.170296021934667</v>
       </c>
       <c r="G12">
-        <v>0.178361645001402</v>
+        <v>0.15143590463109699</v>
       </c>
       <c r="H12">
-        <v>0.1173843044009</v>
+        <v>0.13344005501923001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>697</v>
+        <v>622</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0.67575322812051597</v>
+        <v>6.4308681672025705E-2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.385807593315181</v>
+        <v>3.2864813414646303E-2</v>
       </c>
       <c r="G13">
-        <v>0.18052159287428499</v>
+        <v>0.15448896304173301</v>
       </c>
       <c r="H13">
-        <v>0.14290281706794</v>
+        <v>0.15727358012499901</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B14">
-        <v>626</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
+        <v>707</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.29073482428114999</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.92927864214992895</v>
       </c>
       <c r="F14">
-        <v>0.150078897207509</v>
+        <v>0.57998922258573304</v>
       </c>
       <c r="G14">
-        <v>0.179226362901273</v>
+        <v>0.149495151390449</v>
       </c>
       <c r="H14">
-        <v>0.16968063013736201</v>
+        <v>8.2472841082191703E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B15">
-        <v>651</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0.26267281105990697</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.14008901471558299</v>
-      </c>
-      <c r="G15">
-        <v>0.18044695156901799</v>
-      </c>
-      <c r="H15">
-        <v>0.16956124622222199</v>
+        <v>738</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B16">
-        <v>702</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.91168091168091103</v>
-      </c>
-      <c r="F16">
-        <v>0.57625842249543202</v>
-      </c>
-      <c r="G16">
-        <v>0.17767633354107601</v>
-      </c>
-      <c r="H16">
-        <v>9.2829002143750006E-2</v>
+        <v>711</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B17">
-        <v>747</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.236947791164658</v>
-      </c>
-      <c r="E17">
-        <v>0.86440677966101698</v>
-      </c>
-      <c r="F17">
-        <v>0.14507761630254101</v>
-      </c>
-      <c r="G17">
-        <v>6.0806454921333297E-2</v>
-      </c>
-      <c r="H17">
-        <v>2.1980603588235201E-2</v>
+        <v>705</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B18">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>7.0323488045007003E-3</v>
+        <v>0.80592991913746603</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.98996655518394605</v>
       </c>
       <c r="F18">
-        <v>4.1409629763006703E-3</v>
+        <v>0.49057978943893299</v>
       </c>
       <c r="G18">
-        <v>5.9953512718092503E-2</v>
+        <v>0.11837838124932901</v>
       </c>
       <c r="H18">
-        <v>3.62149924E-2</v>
+        <v>6.7192155084459401E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B19">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
+        <v>0.31372549019607798</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.18337709390995899</v>
       </c>
       <c r="G19">
-        <v>5.8815239358543402E-2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
+        <v>0.120285315187675</v>
+      </c>
+      <c r="H19">
+        <v>9.5940830732142796E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B20">
-        <v>770</v>
+        <v>663</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
+        <v>0.108597285067873</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5.9152553934279303E-2</v>
       </c>
       <c r="G20">
-        <v>6.01488823462532E-2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
+        <v>0.118646806266866</v>
+      </c>
+      <c r="H20">
+        <v>0.10663840902777701</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B21">
-        <v>718</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
+        <v>643</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2.4883359253499202E-2</v>
       </c>
       <c r="E21">
-        <v>0.19498607242339799</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.58729768020184403</v>
+        <v>1.31537444691152E-2</v>
       </c>
       <c r="G21">
-        <v>5.8985970017980602E-2</v>
+        <v>0.12154586446500699</v>
       </c>
       <c r="H21">
-        <v>1.3267227649999999E-2</v>
+        <v>0.1186932798125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B22">
-        <v>743</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>655</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0.52624495289367401</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.97442455242966697</v>
+        <v>0.67633587786259497</v>
       </c>
       <c r="F22">
-        <v>0.32140032440041</v>
+        <v>0.53525698735502403</v>
       </c>
       <c r="G22">
-        <v>8.9692239561662099E-2</v>
+        <v>0.11731473954999901</v>
       </c>
       <c r="H22">
-        <v>4.92132457742782E-2</v>
+        <v>4.7460517422121901E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B23">
-        <v>672</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>9.0773809523809507E-2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>5.01591427952605E-2</v>
-      </c>
-      <c r="G23">
-        <v>8.9150098244047599E-2</v>
-      </c>
-      <c r="H23">
-        <v>6.6859150377049106E-2</v>
+        <v>723</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B24">
-        <v>673</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1.18870728083209E-2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>6.5897565970280403E-3</v>
-      </c>
-      <c r="G24">
-        <v>9.0551472551775106E-2</v>
-      </c>
-      <c r="H24">
-        <v>8.2416933375000001E-2</v>
+        <v>677</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B25">
-        <v>666</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>673</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>310</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>8.9575579235382299E-2</v>
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" t="s">
+        <v>312</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -9906,181 +9916,181 @@
         <v>90</v>
       </c>
       <c r="B26">
-        <v>712</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
+        <v>743</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.52624495289367401</v>
       </c>
       <c r="E26">
-        <v>0.56460674157303303</v>
+        <v>0.97442455242966697</v>
       </c>
       <c r="F26">
-        <v>0.58230552905908695</v>
+        <v>0.32140032440041</v>
       </c>
       <c r="G26">
-        <v>9.0725325493723794E-2</v>
+        <v>8.9692239561662099E-2</v>
       </c>
       <c r="H26">
-        <v>3.09953152164179E-2</v>
+        <v>4.92132457742782E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B27">
-        <v>687</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" t="s">
-        <v>267</v>
-      </c>
-      <c r="H27" t="s">
-        <v>268</v>
+        <v>672</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>9.0773809523809507E-2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5.01591427952605E-2</v>
+      </c>
+      <c r="G27">
+        <v>8.9150098244047599E-2</v>
+      </c>
+      <c r="H27">
+        <v>6.6859150377049106E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>703</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>270</v>
-      </c>
-      <c r="G28" t="s">
-        <v>271</v>
-      </c>
-      <c r="H28" t="s">
-        <v>272</v>
+        <v>673</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1.18870728083209E-2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>6.5897565970280403E-3</v>
+      </c>
+      <c r="G28">
+        <v>9.0551472551775106E-2</v>
+      </c>
+      <c r="H28">
+        <v>8.2416933375000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B29">
-        <v>687</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>273</v>
+        <v>666</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" t="s">
-        <v>275</v>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>8.9575579235382299E-2</v>
       </c>
       <c r="H29" t="s">
-        <v>276</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>765</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" t="s">
-        <v>279</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="H30" t="s">
-        <v>281</v>
+        <v>712</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.56460674157303303</v>
+      </c>
+      <c r="F30">
+        <v>0.58230552905908695</v>
+      </c>
+      <c r="G30">
+        <v>9.0725325493723794E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.09953152164179E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B31">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H31" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B32">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -10088,236 +10098,239 @@
         <v>90</v>
       </c>
       <c r="B33">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E33" t="s">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>684</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" t="s">
-        <v>294</v>
-      </c>
-      <c r="G34" t="s">
-        <v>295</v>
-      </c>
-      <c r="H34" t="s">
-        <v>296</v>
+        <v>747</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.236947791164658</v>
+      </c>
+      <c r="E34">
+        <v>0.86440677966101698</v>
+      </c>
+      <c r="F34">
+        <v>0.14507761630254101</v>
+      </c>
+      <c r="G34">
+        <v>6.0806454921333297E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.1980603588235201E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B35">
-        <v>693</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>297</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>298</v>
-      </c>
-      <c r="G35" t="s">
-        <v>299</v>
-      </c>
-      <c r="H35" t="s">
-        <v>300</v>
+        <v>711</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>7.0323488045007003E-3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4.1409629763006703E-3</v>
+      </c>
+      <c r="G35">
+        <v>5.9953512718092503E-2</v>
+      </c>
+      <c r="H35">
+        <v>3.62149924E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>723</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" t="s">
-        <v>301</v>
+        <v>712</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
-      </c>
-      <c r="F36" t="s">
-        <v>303</v>
-      </c>
-      <c r="G36" t="s">
-        <v>304</v>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>5.8815239358543402E-2</v>
       </c>
       <c r="H36" t="s">
-        <v>305</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>677</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>306</v>
+        <v>770</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>307</v>
-      </c>
-      <c r="G37" t="s">
-        <v>308</v>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>6.01488823462532E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>673</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>311</v>
-      </c>
-      <c r="G38" t="s">
-        <v>312</v>
-      </c>
-      <c r="H38" t="s">
-        <v>313</v>
+        <v>718</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.19498607242339799</v>
+      </c>
+      <c r="F38">
+        <v>0.58729768020184403</v>
+      </c>
+      <c r="G38">
+        <v>5.8985970017980602E-2</v>
+      </c>
+      <c r="H38">
+        <v>1.3267227649999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B39">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="H39" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B40">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="H40" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B41">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="H41" t="s">
-        <v>327</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
+    <sortCondition descending="1" ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10326,8 +10339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10496,80 +10509,80 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>611</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.65630114566284703</v>
-      </c>
-      <c r="E7">
-        <v>0.99002493765585997</v>
-      </c>
-      <c r="F7">
-        <v>0.323392624545014</v>
-      </c>
-      <c r="G7">
-        <v>9.9624483278501597E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.0666469828715303E-2</v>
+        <v>298</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>536</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0.104477611940298</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4.5272860883622097E-2</v>
-      </c>
-      <c r="G8">
-        <v>9.9526553005576196E-2</v>
-      </c>
-      <c r="H8">
-        <v>8.0597526107142797E-2</v>
+        <v>267</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>590</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1.6949152542372801E-3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>8.1872189321091898E-4</v>
-      </c>
-      <c r="G9">
-        <v>0.101535166349152</v>
-      </c>
-      <c r="H9">
-        <v>0.10420987399999999</v>
+        <v>288</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -10577,25 +10590,25 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>517</v>
+        <v>611</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
+        <v>0.65630114566284703</v>
+      </c>
+      <c r="E10">
+        <v>0.99002493765585997</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.323392624545014</v>
       </c>
       <c r="G10">
-        <v>0.100951229611218</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
+        <v>9.9624483278501597E-2</v>
+      </c>
+      <c r="H10">
+        <v>5.0666469828715303E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -10603,727 +10616,727 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>574</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>536</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.104477611940298</v>
       </c>
       <c r="E11">
-        <v>0.79442508710801396</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.46190034545365499</v>
+        <v>4.5272860883622097E-2</v>
       </c>
       <c r="G11">
-        <v>0.10043742691826001</v>
+        <v>9.9526553005576196E-2</v>
       </c>
       <c r="H11">
-        <v>4.3132122662280697E-2</v>
+        <v>8.0597526107142797E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>909</v>
+        <v>590</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.65236523652365197</v>
+        <v>1.6949152542372801E-3</v>
       </c>
       <c r="E12">
-        <v>0.981450252951096</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.47130272405093099</v>
+        <v>8.1872189321091898E-4</v>
       </c>
       <c r="G12">
-        <v>0.101619240551912</v>
+        <v>0.101535166349152</v>
       </c>
       <c r="H12">
-        <v>5.1250953008590998E-2</v>
+        <v>0.10420987399999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>864</v>
+        <v>517</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0.10416666666666601</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>7.1518090658411096E-2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.10071695574104</v>
-      </c>
-      <c r="H13">
-        <v>8.0871005388888806E-2</v>
+        <v>0.100951229611218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>844</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
+        <v>574</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>2.36966824644549E-3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.79442508710801396</v>
       </c>
       <c r="F14">
-        <v>1.5965318554243999E-3</v>
+        <v>0.46190034545365499</v>
       </c>
       <c r="G14">
-        <v>0.10035046894668199</v>
+        <v>0.10043742691826001</v>
       </c>
       <c r="H14">
-        <v>0.12002144200000001</v>
+        <v>4.3132122662280697E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>858</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>598</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>9.9342194272727197E-2</v>
+        <v>213</v>
+      </c>
+      <c r="F15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>836</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.46770334928229601</v>
-      </c>
-      <c r="F16">
-        <v>0.66096910594831704</v>
-      </c>
-      <c r="G16">
-        <v>9.93976704743742E-2</v>
-      </c>
-      <c r="H16">
-        <v>3.4365185409207098E-2</v>
+        <v>567</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>1133</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.62488967343336199</v>
-      </c>
-      <c r="E17">
-        <v>0.98587570621468901</v>
-      </c>
-      <c r="F17">
-        <v>0.55057893232851596</v>
-      </c>
-      <c r="G17">
-        <v>0.10138827654577399</v>
-      </c>
-      <c r="H17">
-        <v>5.1401913727793597E-2</v>
+        <v>584</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>1182</v>
+        <v>909</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.112521150592216</v>
+        <v>0.65236523652365197</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.981450252951096</v>
       </c>
       <c r="F18">
-        <v>0.10385266831991501</v>
+        <v>0.47130272405093099</v>
       </c>
       <c r="G18">
-        <v>0.10026742121566901</v>
+        <v>0.101619240551912</v>
       </c>
       <c r="H18">
-        <v>7.8710458406014996E-2</v>
+        <v>5.1250953008590998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>1189</v>
+        <v>864</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
+        <v>0.10416666666666601</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>7.1518090658411096E-2</v>
       </c>
       <c r="G19">
-        <v>9.8126828740150801E-2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
+        <v>0.10071695574104</v>
+      </c>
+      <c r="H19">
+        <v>8.0871005388888806E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>1148</v>
+        <v>844</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
+        <v>2.36966824644549E-3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.5965318554243999E-3</v>
       </c>
       <c r="G20">
-        <v>0.100808675006962</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
+        <v>0.10035046894668199</v>
+      </c>
+      <c r="H20">
+        <v>0.12002144200000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>943</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
+        <v>858</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.26935312831389102</v>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.734718200870076</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.10053892113443599</v>
-      </c>
-      <c r="H21">
-        <v>3.3010532216535403E-2</v>
+        <v>9.9342194272727197E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>1448</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>836</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0.574585635359116</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.96754807692307598</v>
+        <v>0.46770334928229601</v>
       </c>
       <c r="F22">
-        <v>0.63914937274979999</v>
+        <v>0.66096910594831704</v>
       </c>
       <c r="G22">
-        <v>9.9915659637174206E-2</v>
+        <v>9.93976704743742E-2</v>
       </c>
       <c r="H22">
-        <v>4.8722617259627302E-2</v>
+        <v>3.4365185409207098E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>1487</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>8.4734364492266304E-2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>9.6835049371244902E-2</v>
-      </c>
-      <c r="G23">
-        <v>9.8959425996646505E-2</v>
-      </c>
-      <c r="H23">
-        <v>8.0342337420634902E-2</v>
+        <v>887</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>1439</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>3.4746351633078501E-3</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3.8613061113735702E-3</v>
-      </c>
-      <c r="G24">
-        <v>0.10033273731808701</v>
-      </c>
-      <c r="H24">
-        <v>0.1238634062</v>
+        <v>812</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>1426</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>874</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0.10095263832797199</v>
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>236</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>1208</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
+        <v>1133</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.62488967343336199</v>
       </c>
       <c r="E26">
-        <v>2.06953642384105E-2</v>
+        <v>0.98587570621468901</v>
       </c>
       <c r="F26">
-        <v>0.92911370835569096</v>
+        <v>0.55057893232851596</v>
       </c>
       <c r="G26">
-        <v>0.101382162226753</v>
+        <v>0.10138827654577399</v>
       </c>
       <c r="H26">
-        <v>2.2962064800000001E-2</v>
+        <v>5.1401913727793597E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>298</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" t="s">
-        <v>201</v>
+        <v>1182</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0.112521150592216</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.10385266831991501</v>
+      </c>
+      <c r="G27">
+        <v>0.10026742121566901</v>
+      </c>
+      <c r="H27">
+        <v>7.8710458406014996E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>267</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>203</v>
+        <v>1189</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" t="s">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>9.8126828740150801E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>288</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>208</v>
+        <v>1148</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" t="s">
-        <v>210</v>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.100808675006962</v>
       </c>
       <c r="H29" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>598</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" t="s">
-        <v>213</v>
-      </c>
-      <c r="F30" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" t="s">
-        <v>216</v>
+        <v>943</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.26935312831389102</v>
+      </c>
+      <c r="F30">
+        <v>0.734718200870076</v>
+      </c>
+      <c r="G30">
+        <v>0.10053892113443599</v>
+      </c>
+      <c r="H30">
+        <v>3.3010532216535403E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>567</v>
+        <v>1185</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>584</v>
+        <v>1166</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
         <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>887</v>
+        <v>1145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>812</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" t="s">
-        <v>232</v>
-      </c>
-      <c r="H34" t="s">
-        <v>233</v>
+        <v>1448</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.574585635359116</v>
+      </c>
+      <c r="E34">
+        <v>0.96754807692307598</v>
+      </c>
+      <c r="F34">
+        <v>0.63914937274979999</v>
+      </c>
+      <c r="G34">
+        <v>9.9915659637174206E-2</v>
+      </c>
+      <c r="H34">
+        <v>4.8722617259627302E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>874</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" t="s">
-        <v>237</v>
+        <v>1487</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>8.4734364492266304E-2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>9.6835049371244902E-2</v>
+      </c>
+      <c r="G35">
+        <v>9.8959425996646505E-2</v>
+      </c>
+      <c r="H35">
+        <v>8.0342337420634902E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>1185</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" t="s">
-        <v>242</v>
+        <v>1439</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3.4746351633078501E-3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3.8613061113735702E-3</v>
+      </c>
+      <c r="G36">
+        <v>0.10033273731808701</v>
+      </c>
+      <c r="H36">
+        <v>0.1238634062</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>1166</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>243</v>
+        <v>1426</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" t="s">
-        <v>245</v>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.10095263832797199</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>1145</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" t="s">
-        <v>250</v>
+        <v>1208</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2.06953642384105E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.92911370835569096</v>
+      </c>
+      <c r="G38">
+        <v>0.101382162226753</v>
+      </c>
+      <c r="H38">
+        <v>2.2962064800000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -11405,6 +11418,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>